--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Дата платежа</t>
   </si>
@@ -44,6 +44,36 @@
   </si>
   <si>
     <t>Бонусы (включая кэшбэк)</t>
+  </si>
+  <si>
+    <t>02.01.2024</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>5411</t>
+  </si>
+  <si>
+    <t>Супермаркеты</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>03.01.2024</t>
+  </si>
+  <si>
+    <t>87654321</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>Test 2</t>
   </si>
 </sst>
 </file>
@@ -375,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,6 +446,70 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>-100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>-200</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
